--- a/app/acts/ks14base/docx_template/KS3 Template.xlsx
+++ b/app/acts/ks14base/docx_template/KS3 Template.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\ActHiddeen\app\acts\ks14base\docx_template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803DDBAE-91E1-411A-9DE3-4D2CA240580F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="КС-3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -253,6 +247,22 @@
     </r>
   </si>
   <si>
+    <t>{{ supervisor_decree_dative }}</t>
+  </si>
+  <si>
+    <t>{{ supervisor_delegate }}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Подрядчик:</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -260,6 +270,44 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью «{{ contractor }}»</t>
+  </si>
+  <si>
+    <t>Генеральный директор</t>
+  </si>
+  <si>
+    <t>{{ contractor_delegate }}</t>
+  </si>
+  <si>
+    <t>Уполномоченное лицо от имени собственников</t>
+  </si>
+  <si>
+    <t>{{ administration_order }}</t>
+  </si>
+  <si>
+    <t>Уполномоченный  представитель администрации {{ district_prepositional }} района</t>
+  </si>
+  <si>
+    <t>{{ administration_delegate_position }}</t>
+  </si>
+  <si>
+    <t>{{ administration_delegate_decree }}</t>
+  </si>
+  <si>
+    <t>{{ administration_delegate }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>по доверенности  №200 от 27.12.2018</t>
+  </si>
+  <si>
+    <r>
       <t>Инженер</t>
     </r>
     <r>
@@ -282,71 +330,11 @@
       <t>отдела строительного контроля №{{ supervisor_OSK_number }}</t>
     </r>
   </si>
-  <si>
-    <t>{{ supervisor_decree_dative }}</t>
-  </si>
-  <si>
-    <t>{{ supervisor_delegate }}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Подрядчик:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Общество с ограниченной ответственностью «{{ contractor }}»</t>
-  </si>
-  <si>
-    <t>Генеральный директор</t>
-  </si>
-  <si>
-    <t>{{ contractor_delegate }}</t>
-  </si>
-  <si>
-    <t>Уполномоченное лицо от имени собственников</t>
-  </si>
-  <si>
-    <t>{{ administration_order }}</t>
-  </si>
-  <si>
-    <t>Уполномоченный  представитель администрации {{ district_prepositional }} района</t>
-  </si>
-  <si>
-    <t>{{ administration_delegate_position }}</t>
-  </si>
-  <si>
-    <t>{{ administration_delegate_decree }}</t>
-  </si>
-  <si>
-    <t>{{ administration_delegate }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>по доверенности  №200 от 27.12.2018</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -839,48 +827,6 @@
   </cellStyleXfs>
   <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1065,74 +1011,116 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1508,1120 +1496,1176 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10" style="15" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="15" customWidth="1"/>
-    <col min="14" max="257" width="11.42578125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" customWidth="1"/>
+    <col min="14" max="257" width="11.42578125" style="1" customWidth="1"/>
     <col min="258" max="1025" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="14" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="13" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="12" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="12" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="11" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="17" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
     </row>
     <row r="7" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="17" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
     </row>
     <row r="8" spans="1:15" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
     </row>
     <row r="9" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="17" t="s">
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="93">
         <v>31930135</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="N9" s="27"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
     </row>
     <row r="11" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="17" t="s">
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
     </row>
     <row r="13" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33" t="s">
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="1" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
     </row>
     <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="34" t="s">
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="82" t="s">
+      <c r="J16" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="34" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="14" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="84" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="84"/>
-      <c r="I22" s="40" t="s">
+      <c r="H22" s="87"/>
+      <c r="I22" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="85" t="s">
+      <c r="J22" s="27"/>
+      <c r="K22" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="85"/>
+      <c r="L22" s="88"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="84" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="84"/>
-      <c r="I23" s="41" t="s">
+      <c r="H23" s="87"/>
+      <c r="I23" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="19" t="s">
+      <c r="J23" s="27"/>
+      <c r="K23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="86" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="86"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="44" t="s">
+      <c r="F24" s="83"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47" t="s">
+      <c r="J24" s="32"/>
+      <c r="K24" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="48" t="s">
+      <c r="L24" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="86" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87" t="s">
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="87" t="s">
+      <c r="G26" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
     </row>
     <row r="27" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87" t="s">
+      <c r="H27" s="84"/>
+      <c r="I27" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87" t="s">
+      <c r="J27" s="84"/>
+      <c r="K27" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="87"/>
-      <c r="O27" s="16"/>
+      <c r="L27" s="84"/>
+      <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="49">
+      <c r="A28" s="35">
         <v>1</v>
       </c>
-      <c r="B28" s="88">
+      <c r="B28" s="80">
         <v>2</v>
       </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="49">
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="35">
         <v>3</v>
       </c>
-      <c r="G28" s="88">
+      <c r="G28" s="80">
         <v>4</v>
       </c>
-      <c r="H28" s="88"/>
-      <c r="I28" s="89">
+      <c r="H28" s="80"/>
+      <c r="I28" s="81">
         <v>5</v>
       </c>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89">
+      <c r="J28" s="81"/>
+      <c r="K28" s="81">
         <v>6</v>
       </c>
-      <c r="L28" s="89"/>
+      <c r="L28" s="81"/>
     </row>
     <row r="29" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50">
+      <c r="A29" s="36">
         <v>1</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="91" t="e">
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="72" t="e">
         <f>+I29</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91" t="e">
+      <c r="H29" s="72"/>
+      <c r="I29" s="72" t="e">
         <f>+K29</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91" t="e">
+      <c r="J29" s="72"/>
+      <c r="K29" s="72" t="e">
         <f>+K32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L29" s="91"/>
+      <c r="L29" s="72"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="54"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="40"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="93" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="96" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="J32" s="96"/>
-      <c r="K32" s="91" t="e">
+      <c r="J32" s="71"/>
+      <c r="K32" s="72" t="e">
         <f>+K34-K33</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="91"/>
+      <c r="L32" s="72"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="96" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="96"/>
-      <c r="K33" s="97" t="e">
+      <c r="J33" s="71"/>
+      <c r="K33" s="73" t="e">
         <f>+K34/118*18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="97"/>
+      <c r="L33" s="73"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="98" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="99" t="s">
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="L34" s="99"/>
+      <c r="L34" s="75"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-    </row>
-    <row r="36" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+    </row>
+    <row r="36" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-    </row>
-    <row r="37" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="66" t="s">
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-    </row>
-    <row r="38" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="66" t="s">
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-    </row>
-    <row r="39" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="66" t="s">
+      <c r="B38" s="46"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="67" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="46"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="46"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L40" s="16"/>
-    </row>
-    <row r="41" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="100" t="s">
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="101" t="s">
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="67" t="s">
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="L41" s="16"/>
-    </row>
-    <row r="42" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-    </row>
-    <row r="43" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-    </row>
-    <row r="44" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-    </row>
-    <row r="45" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-    </row>
-    <row r="46" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16" t="s">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="L46" s="16"/>
-    </row>
-    <row r="47" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="100" t="s">
+      <c r="B48" s="52"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="56"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="101" t="s">
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="67" t="s">
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="L47" s="16"/>
-    </row>
-    <row r="48" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-    </row>
-    <row r="49" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-    </row>
-    <row r="50" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16" t="s">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="L50" s="16"/>
-    </row>
-    <row r="51" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="100" t="s">
+      <c r="B52" s="59"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="46"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="52"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="64"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="101" t="s">
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="101"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="67" t="s">
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="L51" s="16"/>
-    </row>
-    <row r="52" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-    </row>
-    <row r="53" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-    </row>
-    <row r="54" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="102"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-    </row>
-    <row r="55" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="66"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-    </row>
-    <row r="56" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="78"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-    </row>
-    <row r="57" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-    </row>
-    <row r="58" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="79" t="s">
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="66"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="L58" s="16"/>
-    </row>
-    <row r="59" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="100"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="100"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="L59" s="16"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="80"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J7:L8"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="J9:L10"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="J11:L12"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="J13:L14"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="A59:D59"/>
@@ -2632,62 +2676,6 @@
     <mergeCell ref="G47:I47"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="G51:I51"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="J11:L12"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="J13:L14"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="J7:L8"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="J9:L10"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.35416666666666702" right="0.35416666666666702" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="85" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/app/acts/ks14base/docx_template/KS3 Template.xlsx
+++ b/app/acts/ks14base/docx_template/KS3 Template.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\ActHiddeen\app\acts\ks14base\docx_template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4994F48-C642-4DB9-8CE5-2D7D06C2EA71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КС-3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -76,10 +82,6 @@
   </si>
   <si>
     <t>Объект</t>
-  </si>
-  <si>
-    <t>Капитальный ремонт {{ system_genitive }} в многоквартирном доме по адресу: 
-{{ address }}</t>
   </si>
   <si>
     <t>( наименование,адрес )</t>
@@ -330,11 +332,15 @@
       <t>отдела строительного контроля №{{ supervisor_OSK_number }}</t>
     </r>
   </si>
+  <si>
+    <t>Капитальный ремонт {{ system_genitive }}  в многоквартирном доме по адресу: 
+{{ address }}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1011,6 +1017,105 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,105 +1127,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1496,18 +1502,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1540,10 +1546,10 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="85"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1554,12 +1560,12 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -1569,13 +1575,13 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1586,12 +1592,12 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1603,11 +1609,11 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -1623,17 +1629,17 @@
       <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
@@ -1643,138 +1649,138 @@
       <c r="I7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
     </row>
     <row r="8" spans="1:15" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
     </row>
     <row r="9" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="93">
+      <c r="J9" s="76">
         <v>31930135</v>
       </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="15"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
     </row>
     <row r="11" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="93" t="s">
+      <c r="J11" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="15"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
     </row>
     <row r="13" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="B13" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
+      <c r="B14" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
@@ -1782,15 +1788,15 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
+      <c r="F15" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
     </row>
     <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -1798,19 +1804,19 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="20" t="s">
+      <c r="J16" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -1822,16 +1828,16 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="K17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="L17" s="22" t="s">
         <v>25</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1844,11 +1850,11 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
+        <v>26</v>
+      </c>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -1860,7 +1866,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="23"/>
       <c r="K19" s="24"/>
@@ -1874,13 +1880,13 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="85"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
+      <c r="H20" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="67"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
@@ -1903,18 +1909,18 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="87" t="s">
+      <c r="G22" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="84"/>
+      <c r="I22" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="27"/>
+      <c r="K22" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="87"/>
-      <c r="I22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="88"/>
+      <c r="L22" s="85"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -1923,19 +1929,19 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="87" t="s">
+      <c r="G23" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="84"/>
+      <c r="I23" s="27" t="s">
         <v>32</v>
-      </c>
-      <c r="H23" s="87"/>
-      <c r="I23" s="27" t="s">
-        <v>33</v>
       </c>
       <c r="J23" s="27"/>
       <c r="K23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1943,143 +1949,143 @@
       <c r="B24" s="2"/>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="83"/>
+      <c r="E24" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="86"/>
       <c r="G24" s="2"/>
       <c r="H24" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="31" t="s">
         <v>37</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>38</v>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L24" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
+      <c r="C25" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="84" t="s">
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="84" t="s">
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+    </row>
+    <row r="27" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-    </row>
-    <row r="27" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="84"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84" t="s">
+      <c r="H27" s="87"/>
+      <c r="I27" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84" t="s">
+      <c r="J27" s="87"/>
+      <c r="K27" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="84"/>
+      <c r="L27" s="87"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>1</v>
       </c>
-      <c r="B28" s="80">
+      <c r="B28" s="88">
         <v>2</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
       <c r="F28" s="35">
         <v>3</v>
       </c>
-      <c r="G28" s="80">
+      <c r="G28" s="88">
         <v>4</v>
       </c>
-      <c r="H28" s="80"/>
-      <c r="I28" s="81">
+      <c r="H28" s="88"/>
+      <c r="I28" s="89">
         <v>5</v>
       </c>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81">
+      <c r="J28" s="89"/>
+      <c r="K28" s="89">
         <v>6</v>
       </c>
-      <c r="L28" s="81"/>
+      <c r="L28" s="89"/>
     </row>
     <row r="29" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="36">
         <v>1</v>
       </c>
-      <c r="B29" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
+      <c r="B29" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
       <c r="F29" s="37"/>
-      <c r="G29" s="72" t="e">
+      <c r="G29" s="91" t="e">
         <f>+I29</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72" t="e">
+      <c r="H29" s="91"/>
+      <c r="I29" s="91" t="e">
         <f>+K29</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72" t="e">
+      <c r="J29" s="91"/>
+      <c r="K29" s="91" t="e">
         <f>+K32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L29" s="72"/>
+      <c r="L29" s="91"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="37"/>
       <c r="G30" s="38"/>
       <c r="H30" s="39"/>
@@ -2090,19 +2096,19 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
+      <c r="B31" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
@@ -2113,15 +2119,15 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" s="71"/>
-      <c r="K32" s="72" t="e">
+      <c r="I32" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="96"/>
+      <c r="K32" s="91" t="e">
         <f>+K34-K33</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="72"/>
+      <c r="L32" s="91"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
@@ -2132,15 +2138,15 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="J33" s="71"/>
-      <c r="K33" s="73" t="e">
+      <c r="I33" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="96"/>
+      <c r="K33" s="97" t="e">
         <f>+K34/118*18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="73"/>
+      <c r="L33" s="97"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -2150,15 +2156,15 @@
       <c r="E34" s="7"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="74" t="s">
+      <c r="H34" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="L34" s="75"/>
+      <c r="L34" s="99"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
@@ -2176,7 +2182,7 @@
     </row>
     <row r="36" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="46"/>
       <c r="C36" s="47"/>
@@ -2192,7 +2198,7 @@
     </row>
     <row r="37" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="46"/>
       <c r="C37" s="47"/>
@@ -2208,7 +2214,7 @@
     </row>
     <row r="38" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="46"/>
       <c r="C38" s="47"/>
@@ -2224,7 +2230,7 @@
     </row>
     <row r="39" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="47"/>
@@ -2240,7 +2246,7 @@
     </row>
     <row r="40" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -2252,33 +2258,33 @@
       <c r="I40" s="55"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
       <c r="E41" s="49"/>
       <c r="F41" s="50"/>
-      <c r="G41" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
+      <c r="G41" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
       <c r="J41" s="2"/>
       <c r="K41" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -2294,7 +2300,7 @@
     </row>
     <row r="43" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="47"/>
@@ -2310,7 +2316,7 @@
     </row>
     <row r="44" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="46"/>
       <c r="C44" s="47"/>
@@ -2326,7 +2332,7 @@
     </row>
     <row r="45" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="56"/>
       <c r="C45" s="57"/>
@@ -2342,7 +2348,7 @@
     </row>
     <row r="46" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="56"/>
       <c r="C46" s="57"/>
@@ -2354,33 +2360,33 @@
       <c r="I46" s="55"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
+      <c r="A47" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
       <c r="E47" s="49"/>
       <c r="F47" s="50"/>
-      <c r="G47" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
+      <c r="G47" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
       <c r="J47" s="2"/>
       <c r="K47" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="52"/>
       <c r="C48" s="47"/>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="49" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="56"/>
       <c r="C49" s="57"/>
@@ -2412,7 +2418,7 @@
     </row>
     <row r="50" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="46"/>
       <c r="C50" s="47"/>
@@ -2424,33 +2430,33 @@
       <c r="I50" s="55"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
+      <c r="A51" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
       <c r="E51" s="49"/>
       <c r="F51" s="50"/>
-      <c r="G51" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
+      <c r="G51" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
       <c r="J51" s="2"/>
       <c r="K51" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="59"/>
       <c r="C52" s="60"/>
@@ -2466,7 +2472,7 @@
     </row>
     <row r="53" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="46"/>
       <c r="C53" s="47"/>
@@ -2481,15 +2487,15 @@
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="67"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
       <c r="E54" s="49"/>
       <c r="F54" s="50"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="101"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -2510,7 +2516,7 @@
     </row>
     <row r="56" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" s="64"/>
       <c r="C56" s="60"/>
@@ -2526,7 +2532,7 @@
     </row>
     <row r="57" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="47"/>
@@ -2542,7 +2548,7 @@
     </row>
     <row r="58" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="47"/>
@@ -2554,27 +2560,27 @@
       <c r="I58" s="55"/>
       <c r="J58" s="2"/>
       <c r="K58" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
+      <c r="A59" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
       <c r="E59" s="49"/>
       <c r="F59" s="50"/>
-      <c r="G59" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
+      <c r="G59" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="103"/>
+      <c r="I59" s="103"/>
       <c r="J59" s="2"/>
       <c r="K59" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L59" s="2"/>
     </row>
@@ -2596,7 +2602,7 @@
       <c r="A61" s="66"/>
       <c r="B61" s="66"/>
       <c r="C61" s="66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" s="66"/>
       <c r="E61" s="66"/>
@@ -2610,62 +2616,6 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="J7:L8"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="J9:L10"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="J11:L12"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="J13:L14"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="A59:D59"/>
@@ -2676,6 +2626,62 @@
     <mergeCell ref="G47:I47"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="G51:I51"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="J11:L12"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="J13:L14"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J7:L8"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="J9:L10"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.35416666666666702" right="0.35416666666666702" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="85" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/app/acts/ks14base/docx_template/KS3 Template.xlsx
+++ b/app/acts/ks14base/docx_template/KS3 Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\ActHiddeen\app\acts\ks14base\docx_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4B36D0-7061-4450-BC93-D885116F7CC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAE4A46-E540-4979-9389-C66CAA90070A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>по доверенности  №200 от 27.12.2018</t>
-  </si>
-  <si>
-    <t>М.Г. Бутин</t>
   </si>
   <si>
     <t>(должность)</t>
@@ -341,6 +338,9 @@
   <si>
     <t>Ремонт {{ system_genitive }}  в многоквартирном доме по адресу: 
 {{ address }}</t>
+  </si>
+  <si>
+    <t>Бутин М.Г.</t>
   </si>
 </sst>
 </file>
@@ -839,48 +839,6 @@
   </cellStyleXfs>
   <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1065,74 +1023,116 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1518,1110 +1518,1166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:L33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10" style="15" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="15" customWidth="1"/>
-    <col min="14" max="257" width="11.42578125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" customWidth="1"/>
+    <col min="14" max="257" width="11.42578125" style="1" customWidth="1"/>
     <col min="258" max="1025" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="14" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="13" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="12" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="12" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="11" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="19" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
     </row>
     <row r="7" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="19" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
     </row>
     <row r="8" spans="1:15" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
     </row>
     <row r="9" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="19" t="s">
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="93">
         <v>31930135</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="N9" s="26"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
     </row>
     <row r="11" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="19" t="s">
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
     </row>
     <row r="13" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="B13" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32" t="s">
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="1" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
     </row>
     <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="14" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="33" t="s">
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="82" t="s">
+      <c r="J16" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="33" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="35" t="s">
+      <c r="L17" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="19" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="19" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="38"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="14" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="84" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="84"/>
-      <c r="I22" s="39" t="s">
+      <c r="H22" s="87"/>
+      <c r="I22" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="40"/>
-      <c r="K22" s="85" t="s">
+      <c r="J22" s="26"/>
+      <c r="K22" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="85"/>
+      <c r="L22" s="88"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="84" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="84"/>
-      <c r="I23" s="40" t="s">
+      <c r="H23" s="87"/>
+      <c r="I23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="18" t="s">
+      <c r="J23" s="26"/>
+      <c r="K23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="86" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="86"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="43" t="s">
+      <c r="F24" s="83"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46" t="s">
+      <c r="J24" s="31"/>
+      <c r="K24" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="47" t="s">
+      <c r="L24" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="86" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87" t="s">
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="87" t="s">
+      <c r="G26" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
     </row>
     <row r="27" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87" t="s">
+      <c r="H27" s="84"/>
+      <c r="I27" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87" t="s">
+      <c r="J27" s="84"/>
+      <c r="K27" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="87"/>
-      <c r="O27" s="16"/>
+      <c r="L27" s="84"/>
+      <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="48">
+      <c r="A28" s="34">
         <v>1</v>
       </c>
-      <c r="B28" s="88">
+      <c r="B28" s="80">
         <v>2</v>
       </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="48">
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="34">
         <v>3</v>
       </c>
-      <c r="G28" s="88">
+      <c r="G28" s="80">
         <v>4</v>
       </c>
-      <c r="H28" s="88"/>
-      <c r="I28" s="89">
+      <c r="H28" s="80"/>
+      <c r="I28" s="81">
         <v>5</v>
       </c>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89">
+      <c r="J28" s="81"/>
+      <c r="K28" s="81">
         <v>6</v>
       </c>
-      <c r="L28" s="89"/>
+      <c r="L28" s="81"/>
     </row>
     <row r="29" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49">
+      <c r="A29" s="35">
         <v>1</v>
       </c>
-      <c r="B29" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="91" t="e">
+      <c r="B29" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="72" t="e">
         <f>+I29</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91" t="e">
+      <c r="H29" s="72"/>
+      <c r="I29" s="72" t="e">
         <f>+K29</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91" t="e">
+      <c r="J29" s="72"/>
+      <c r="K29" s="72" t="e">
         <f>+K32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L29" s="91"/>
+      <c r="L29" s="72"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="53"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="39"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="93" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="96" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="96"/>
-      <c r="K32" s="91" t="e">
+      <c r="J32" s="71"/>
+      <c r="K32" s="72" t="e">
         <f>+K34-K33</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="91"/>
+      <c r="L32" s="72"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="96" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="J33" s="96"/>
-      <c r="K33" s="97" t="e">
+      <c r="J33" s="71"/>
+      <c r="K33" s="73" t="e">
         <f>+K34/120*20</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="97"/>
+      <c r="L33" s="73"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="98" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="99" t="s">
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="L34" s="99"/>
+      <c r="L34" s="75"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-    </row>
-    <row r="36" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+    </row>
+    <row r="36" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-    </row>
-    <row r="37" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="65" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-    </row>
-    <row r="38" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="65" t="s">
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-    </row>
-    <row r="39" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="65" t="s">
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="66" t="s">
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16" t="s">
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="L40" s="16"/>
-    </row>
-    <row r="41" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="100" t="s">
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="101" t="s">
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="66" t="s">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L41" s="16"/>
-    </row>
-    <row r="42" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="58" t="s">
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-    </row>
-    <row r="43" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-    </row>
-    <row r="44" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-    </row>
-    <row r="45" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="65" t="s">
+      <c r="B45" s="55"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-    </row>
-    <row r="46" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="65" t="s">
+      <c r="B46" s="55"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16" t="s">
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="L46" s="16"/>
-    </row>
-    <row r="47" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="100" t="s">
+      <c r="B48" s="51"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="55"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="101" t="s">
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="L47" s="16"/>
-    </row>
-    <row r="48" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-    </row>
-    <row r="49" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-    </row>
-    <row r="50" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16" t="s">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="L50" s="16"/>
-    </row>
-    <row r="51" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="100" t="s">
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="51"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="63"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="65"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="65"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="101" t="s">
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="101"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="L51" s="16"/>
-    </row>
-    <row r="52" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-    </row>
-    <row r="53" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-    </row>
-    <row r="54" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="102"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-    </row>
-    <row r="55" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="65"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-    </row>
-    <row r="56" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="77"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-    </row>
-    <row r="57" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="79"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-    </row>
-    <row r="58" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="79"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="78" t="s">
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="65"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="66"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="L58" s="16"/>
-    </row>
-    <row r="59" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="100"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="100"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="L59" s="16"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="79"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="80"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J7:L8"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="J9:L10"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="J11:L12"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="J13:L14"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="A59:D59"/>
@@ -2632,62 +2688,6 @@
     <mergeCell ref="G47:I47"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="G51:I51"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="J11:L12"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="J13:L14"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="J7:L8"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="J9:L10"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.35416666666666702" right="0.35416666666666702" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="85" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
